--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7516A4-BADB-4A98-85DF-1A173B1195C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="210">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -891,11 +890,15 @@
 此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1238,8 +1241,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,23 +1333,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1382,23 +1368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1574,26 +1543,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="29.21875" style="3"/>
+    <col min="7" max="7" width="50.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="29.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1578,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="28" t="s">
@@ -1623,7 +1592,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
@@ -1639,7 +1608,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1620,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1632,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1644,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1656,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1680,7 @@
       </c>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1731,7 +1700,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1751,7 +1720,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1771,7 +1740,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -1791,7 +1760,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -1811,7 +1780,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="42">
         <v>6</v>
       </c>
@@ -1833,7 +1802,7 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -1853,7 +1822,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -1873,7 +1842,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -1893,7 +1862,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -1915,7 +1884,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -1937,7 +1906,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -1957,7 +1926,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -1977,7 +1946,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="155" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>14</v>
       </c>
@@ -1999,7 +1968,7 @@
       </c>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="93" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>15</v>
       </c>
@@ -2021,7 +1990,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>16</v>
       </c>
@@ -2043,7 +2012,7 @@
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>17</v>
       </c>
@@ -2063,7 +2032,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>18</v>
       </c>
@@ -2083,7 +2052,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -2105,7 +2074,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <v>20</v>
       </c>
@@ -2127,7 +2096,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>21</v>
       </c>
@@ -2147,7 +2116,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>22</v>
       </c>
@@ -2169,7 +2138,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="62" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>23</v>
       </c>
@@ -2193,7 +2162,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="217" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>24</v>
       </c>
@@ -2206,8 +2175,8 @@
       <c r="D32" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="21">
-        <v>2</v>
+      <c r="E32" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -2215,7 +2184,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>25</v>
       </c>
@@ -2237,7 +2206,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <v>26</v>
       </c>
@@ -2259,7 +2228,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <v>27</v>
       </c>
@@ -2281,7 +2250,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <v>28</v>
       </c>
@@ -2303,7 +2272,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <v>29</v>
       </c>
@@ -2325,7 +2294,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <v>30</v>
       </c>
@@ -2347,7 +2316,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <v>31</v>
       </c>
@@ -2369,7 +2338,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <v>32</v>
       </c>
@@ -2391,7 +2360,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <v>33</v>
       </c>
@@ -2413,7 +2382,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <v>34</v>
       </c>
@@ -2437,7 +2406,7 @@
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <v>35</v>
       </c>
@@ -2461,7 +2430,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <v>36</v>
       </c>
@@ -2485,7 +2454,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <v>37</v>
       </c>
@@ -2509,7 +2478,7 @@
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <v>38</v>
       </c>
@@ -2533,7 +2502,7 @@
       </c>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>39</v>
       </c>
@@ -2557,7 +2526,7 @@
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15">
         <v>40</v>
       </c>
@@ -2579,7 +2548,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="15">
         <v>41</v>
       </c>
@@ -2603,7 +2572,7 @@
       </c>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="15">
         <v>42</v>
       </c>
@@ -2627,7 +2596,7 @@
       </c>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="15">
         <v>43</v>
       </c>
@@ -2647,7 +2616,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="15">
         <v>44</v>
       </c>
@@ -2671,7 +2640,7 @@
       </c>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="15">
         <v>45</v>
       </c>
@@ -2691,7 +2660,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15">
         <v>46</v>
       </c>
@@ -2713,7 +2682,7 @@
       <c r="G54" s="38"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="15">
         <v>47</v>
       </c>
@@ -2735,7 +2704,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="15">
         <v>48</v>
       </c>
@@ -2757,7 +2726,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="15">
         <v>49</v>
       </c>
@@ -2779,7 +2748,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="15">
         <v>50</v>
       </c>
@@ -2803,7 +2772,7 @@
       </c>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="139.5" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
         <v>51</v>
       </c>
@@ -2825,7 +2794,7 @@
       </c>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
         <v>52</v>
       </c>
@@ -2847,7 +2816,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
         <v>53</v>
       </c>
@@ -2867,7 +2836,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="15">
         <v>54</v>
       </c>
@@ -2887,7 +2856,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="15">
         <v>55</v>
       </c>
@@ -2907,7 +2876,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="15">
         <v>56</v>
       </c>
@@ -2927,7 +2896,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="31" x14ac:dyDescent="0.4">
       <c r="A65" s="15">
         <v>57</v>
       </c>
@@ -2965,7 +2934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2973,15 +2942,15 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3011,22 +2980,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="32.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
@@ -3037,7 +3006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
@@ -3056,22 +3025,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
         <v>166</v>
       </c>
@@ -3085,7 +3054,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>162</v>
       </c>
@@ -3093,7 +3062,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>163</v>
       </c>
@@ -3101,7 +3070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
         <v>164</v>
       </c>
@@ -3112,7 +3081,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
         <v>165</v>
       </c>
@@ -3123,7 +3092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
         <v>169</v>
       </c>
@@ -3133,7 +3102,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="40" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="40" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
         <v>170</v>
       </c>
@@ -3145,9 +3114,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:4" s="40" customFormat="1" ht="68" x14ac:dyDescent="0.4">
       <c r="A10" s="40" t="s">
         <v>177</v>
       </c>
@@ -3155,7 +3124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="40" t="s">
         <v>180</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17AD812-24BD-4B17-AFE1-B3B2A88A345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -890,15 +891,11 @@
 此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1241,8 +1238,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,6 +1330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1368,6 +1382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1543,26 +1574,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.453125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="29.1796875" style="3"/>
+    <col min="7" max="7" width="50.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="29.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1609,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="28" t="s">
@@ -1592,7 +1623,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1639,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1651,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1663,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1675,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1687,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1711,7 @@
       </c>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1700,7 +1731,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1720,7 +1751,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1740,7 +1771,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -1760,7 +1791,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -1780,7 +1811,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>6</v>
       </c>
@@ -1802,7 +1833,7 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -1822,7 +1853,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -1842,7 +1873,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -1862,7 +1893,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -1884,7 +1915,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -1906,7 +1937,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -1926,7 +1957,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -1946,7 +1977,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="155" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>14</v>
       </c>
@@ -1968,7 +1999,7 @@
       </c>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="93" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>15</v>
       </c>
@@ -1990,7 +2021,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>16</v>
       </c>
@@ -2012,7 +2043,7 @@
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>17</v>
       </c>
@@ -2032,7 +2063,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>18</v>
       </c>
@@ -2052,7 +2083,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -2074,7 +2105,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>20</v>
       </c>
@@ -2096,7 +2127,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>21</v>
       </c>
@@ -2116,7 +2147,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>22</v>
       </c>
@@ -2138,7 +2169,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>23</v>
       </c>
@@ -2162,7 +2193,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8" ht="217" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>24</v>
       </c>
@@ -2175,8 +2206,8 @@
       <c r="D32" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>209</v>
+      <c r="E32" s="21">
+        <v>2</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
@@ -2184,7 +2215,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>25</v>
       </c>
@@ -2206,7 +2237,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>26</v>
       </c>
@@ -2228,7 +2259,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>27</v>
       </c>
@@ -2250,7 +2281,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>28</v>
       </c>
@@ -2272,7 +2303,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>29</v>
       </c>
@@ -2294,7 +2325,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>30</v>
       </c>
@@ -2316,7 +2347,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>31</v>
       </c>
@@ -2338,7 +2369,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>32</v>
       </c>
@@ -2360,7 +2391,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>33</v>
       </c>
@@ -2382,7 +2413,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>34</v>
       </c>
@@ -2406,7 +2437,7 @@
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>35</v>
       </c>
@@ -2430,7 +2461,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>36</v>
       </c>
@@ -2454,7 +2485,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>37</v>
       </c>
@@ -2478,7 +2509,7 @@
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>38</v>
       </c>
@@ -2502,7 +2533,7 @@
       </c>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>39</v>
       </c>
@@ -2526,7 +2557,7 @@
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>40</v>
       </c>
@@ -2548,7 +2579,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>41</v>
       </c>
@@ -2572,7 +2603,7 @@
       </c>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>42</v>
       </c>
@@ -2596,7 +2627,7 @@
       </c>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>43</v>
       </c>
@@ -2616,7 +2647,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>44</v>
       </c>
@@ -2640,7 +2671,7 @@
       </c>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>45</v>
       </c>
@@ -2660,7 +2691,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>46</v>
       </c>
@@ -2682,7 +2713,7 @@
       <c r="G54" s="38"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>47</v>
       </c>
@@ -2704,7 +2735,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>48</v>
       </c>
@@ -2726,7 +2757,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>49</v>
       </c>
@@ -2748,7 +2779,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>50</v>
       </c>
@@ -2772,7 +2803,7 @@
       </c>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="139.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>51</v>
       </c>
@@ -2794,7 +2825,7 @@
       </c>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>52</v>
       </c>
@@ -2816,7 +2847,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>53</v>
       </c>
@@ -2836,7 +2867,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>54</v>
       </c>
@@ -2856,7 +2887,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>55</v>
       </c>
@@ -2876,7 +2907,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>56</v>
       </c>
@@ -2896,7 +2927,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:7" ht="31" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>57</v>
       </c>
@@ -2934,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2942,15 +2973,15 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +2992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2980,22 +3011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="8"/>
+    <col min="1" max="1" width="32.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
@@ -3025,22 +3056,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.1796875" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="44.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>166</v>
       </c>
@@ -3054,7 +3085,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>162</v>
       </c>
@@ -3062,7 +3093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>163</v>
       </c>
@@ -3070,7 +3101,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>164</v>
       </c>
@@ -3081,7 +3112,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>165</v>
       </c>
@@ -3092,7 +3123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>169</v>
       </c>
@@ -3102,7 +3133,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="40" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="40" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>170</v>
       </c>
@@ -3114,9 +3145,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="68" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" s="40" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>177</v>
       </c>
@@ -3124,7 +3155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>180</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17AD812-24BD-4B17-AFE1-B3B2A88A345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EF93D-F5BD-4F9C-A575-3AEAA0AECCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="SP" sheetId="3" r:id="rId3"/>
     <sheet name="資產五分類" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="215">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -702,10 +702,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>無擔保債權設定金額(法務進度:901)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LawAmount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -732,10 +728,6 @@
   </si>
   <si>
     <t>2.無擔保金額</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.無擔保債權設定金額，資產分類一律為五</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -891,12 +883,46 @@
 此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>LawAssetClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>無擔保資產分類代號</t>
+  </si>
+  <si>
+    <t>無擔保金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.無擔保債權設定金額(法務進度:901)，資產分類一律為五
+2.L7205上傳更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7205上傳更新
+4:四
+5:五</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClass2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產五分類代號2(有擔保部分)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5 (有擔保部分)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,6 +1017,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1084,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1130,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,9 +1139,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1121,9 +1148,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1145,95 +1169,89 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,9 +1273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1295,9 +1313,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1330,26 +1348,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1382,26 +1383,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1575,1377 +1559,1427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="29.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="27"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="27"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="24">
         <v>7</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="24">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="24">
         <v>8</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="27"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="24">
+        <v>8</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="24">
+        <v>16</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="24">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24">
+        <v>6</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24">
+        <v>6</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15">
+        <v>3</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="24">
+        <v>7</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="24">
+        <v>3</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>19</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="24">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="12">
+        <v>3</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>23</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>24</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>25</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>26</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="16">
+        <v>16</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>27</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="16">
+        <v>16</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>28</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="16">
+        <v>16</v>
+      </c>
+      <c r="F36" s="16">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>29</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="16">
+        <v>16</v>
+      </c>
+      <c r="F37" s="16">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>30</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="16">
+        <v>16</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>31</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="16">
+        <v>16</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>32</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="16">
+        <v>16</v>
+      </c>
+      <c r="F40" s="16">
+        <v>2</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>33</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="16">
+        <v>16</v>
+      </c>
+      <c r="F41" s="16">
+        <v>2</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>34</v>
       </c>
-      <c r="E14" s="44">
+      <c r="B42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="16">
+        <v>16</v>
+      </c>
+      <c r="F42" s="16">
+        <v>2</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>35</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="16">
+        <v>16</v>
+      </c>
+      <c r="F43" s="16">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>36</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="16">
+        <v>16</v>
+      </c>
+      <c r="F44" s="16">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>37</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="16">
+        <v>16</v>
+      </c>
+      <c r="F45" s="16">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>38</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="16">
+        <v>16</v>
+      </c>
+      <c r="F46" s="16">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>39</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="16">
+        <v>16</v>
+      </c>
+      <c r="F47" s="16">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>40</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="16">
+        <v>16</v>
+      </c>
+      <c r="F48" s="16">
+        <v>2</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>41</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>42</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="17">
+        <v>2</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>43</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="17">
+        <v>7</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>44</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" s="9" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>45</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="16">
         <v>8</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>46</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="16">
+        <v>16</v>
+      </c>
+      <c r="F54" s="16">
+        <v>2</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>47</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="16">
+        <v>16</v>
+      </c>
+      <c r="F55" s="16">
+        <v>2</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>48</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="16">
+        <v>16</v>
+      </c>
+      <c r="F56" s="16">
+        <v>2</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>49</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="16">
+        <v>16</v>
+      </c>
+      <c r="F57" s="16">
+        <v>2</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>50</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="16">
+        <v>16</v>
+      </c>
+      <c r="F58" s="16">
+        <v>2</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>51</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="44">
+        <v>1</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" s="34">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="9" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>52</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="16">
+        <v>6</v>
+      </c>
+      <c r="F60" s="16">
+        <v>4</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>53</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="17">
+        <v>8</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>54</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="17">
+        <v>6</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>55</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="17">
+        <v>8</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>56</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="17">
+        <v>6</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>57</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="C65" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>9</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="15">
-        <v>3</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>10</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="32">
-        <v>16</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="F65" s="16"/>
+      <c r="G65" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <v>58</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="42">
         <v>2</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="32">
-        <v>16</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="F66" s="43"/>
+      <c r="G66" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H66" s="34">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>59</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="33">
         <v>2</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="32">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>13</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="32">
-        <v>6</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>14</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="32">
-        <v>2</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="18">
-        <v>3</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>16</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="18">
-        <v>3</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>17</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="32">
-        <v>7</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="32">
-        <v>3</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>19</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="32">
-        <v>3</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>20</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>21</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="32">
-        <v>5</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="15">
-        <v>3</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>23</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
-        <v>24</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
-        <v>25</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>26</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="19">
-        <v>16</v>
-      </c>
-      <c r="F34" s="19">
-        <v>2</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>27</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="19">
-        <v>16</v>
-      </c>
-      <c r="F35" s="19">
-        <v>2</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>28</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="19">
-        <v>16</v>
-      </c>
-      <c r="F36" s="19">
-        <v>2</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
-        <v>29</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="19">
-        <v>16</v>
-      </c>
-      <c r="F37" s="19">
-        <v>2</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
-        <v>30</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="19">
-        <v>16</v>
-      </c>
-      <c r="F38" s="19">
-        <v>2</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
-        <v>31</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="19">
-        <v>16</v>
-      </c>
-      <c r="F39" s="19">
-        <v>2</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <v>32</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="19">
-        <v>16</v>
-      </c>
-      <c r="F40" s="19">
-        <v>2</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <v>33</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="19">
-        <v>16</v>
-      </c>
-      <c r="F41" s="19">
-        <v>2</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <v>34</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="37">
-        <v>16</v>
-      </c>
-      <c r="F42" s="37">
-        <v>2</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <v>35</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="37">
-        <v>16</v>
-      </c>
-      <c r="F43" s="37">
-        <v>2</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
-        <v>36</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="37">
-        <v>16</v>
-      </c>
-      <c r="F44" s="37">
-        <v>2</v>
-      </c>
-      <c r="G44" s="23" t="s">
+      <c r="F67" s="32"/>
+      <c r="G67" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
-        <v>37</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="37">
-        <v>16</v>
-      </c>
-      <c r="F45" s="37">
-        <v>2</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="H45" s="27"/>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>38</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="37">
-        <v>16</v>
-      </c>
-      <c r="F46" s="37">
-        <v>2</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>39</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="37">
-        <v>16</v>
-      </c>
-      <c r="F47" s="37">
-        <v>2</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="27"/>
-    </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
-        <v>40</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="37">
-        <v>16</v>
-      </c>
-      <c r="F48" s="37">
-        <v>2</v>
-      </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="27"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
-        <v>41</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="21">
-        <v>1</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="27"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
-        <v>42</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="21">
-        <v>2</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15">
-        <v>43</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="21">
-        <v>7</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
-        <v>44</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="21">
-        <v>2</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
-        <v>45</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="19">
-        <v>8</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="27"/>
-    </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15">
-        <v>46</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="37">
-        <v>16</v>
-      </c>
-      <c r="F54" s="37">
-        <v>2</v>
-      </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="27"/>
-    </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15">
-        <v>47</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="37">
-        <v>16</v>
-      </c>
-      <c r="F55" s="37">
-        <v>2</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15">
-        <v>48</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="37">
-        <v>16</v>
-      </c>
-      <c r="F56" s="37">
-        <v>2</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15">
-        <v>49</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="37">
-        <v>16</v>
-      </c>
-      <c r="F57" s="37">
-        <v>2</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="15">
-        <v>50</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="19">
-        <v>16</v>
-      </c>
-      <c r="F58" s="19">
-        <v>2</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="15">
-        <v>51</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="21">
-        <v>2</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15">
-        <v>52</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="19">
-        <v>6</v>
-      </c>
-      <c r="F60" s="19">
-        <v>4</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="15">
-        <v>53</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="21">
-        <v>8</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="27"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
-        <v>54</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="21">
-        <v>6</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="15">
-        <v>55</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="21">
-        <v>8</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="15">
-        <v>56</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="21">
-        <v>6</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="27"/>
-    </row>
-    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
-        <v>57</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="21">
-        <v>3</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="39" t="s">
-        <v>198</v>
+      <c r="H67" s="34">
+        <v>45163</v>
       </c>
     </row>
   </sheetData>
@@ -3020,31 +3054,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3065,102 +3098,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.21875" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="29" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="29" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="40" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EF93D-F5BD-4F9C-A575-3AEAA0AECCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82E73B-448C-4BFB-9753-AD0D82E97282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
     <sheet name="資產五分類" sheetId="4" r:id="rId4"/>
+    <sheet name="RBC對應表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="249">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -326,10 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>擔保品代號檔CdCl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ClCode2</t>
@@ -872,8 +869,191 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">11:一之1
-12:一之2,
+    <t>LawAssetClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>無擔保資產分類代號</t>
+  </si>
+  <si>
+    <t>無擔保金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.無擔保債權設定金額(法務進度:901)，資產分類一律為五
+2.L7205上傳更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7205上傳更新
+4:四
+5:五</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetClass2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產五分類代號2(有擔保部分)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5 (有擔保部分)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankRelationFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為利害關係人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策性專案貸款</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovProjectFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款種類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一般放款
+2:專案放款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：非授信限制對象-銀行保證放款
+B：非授信限制對象-動產擔保放款
+C： 非授信限制對象-不動產擔保放款
+D：非授信限制對象-有價證券質押放款
+E： 授信限制對象-非具控制與從屬關係
+F：授信限制對象-具控制與從屬關係</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelatedCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為利害關係人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankRelationFlag
+是否為利害關係人(Y/N)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y=&gt;Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/C=&gt;2 else 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品代號檔CdCl
+1 房地
+2 土地
+3 股票
+4 其他有價證券
+5 銀行保證
+9 動產</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthlyLM042RBC \ MonthlyFacBal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1
+主要擔保品代號1
+1 房地
+2 土地
+3 股票
+4 其他有價證券
+5 銀行保證
+9 動產</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A=&gt;5
+B=&gt;9
+C=&gt;1,2
+D=&gt;3,4
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GovProjectFlag
+政策性專案貸款
+Y:初貸日大於等於20110101
+C:初貸日小於20110101
+N:無
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>if BankRelationFlag = Y then E 
+else 
+以ClCode1 對應 
+(目前無F)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=&gt;Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應MonthlyLM052AssetClass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建築貸款記號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定資產記號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAssetFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L7205上傳更新
+11:一之1(正常繳息)
+12:一之2(特定放款資產項目)
 21:二之1
 22:二之2
 23:二之3
@@ -881,48 +1061,46 @@
 4:四   
 5:五
 此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LawAssetClass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>無擔保資產分類代號</t>
-  </si>
-  <si>
-    <t>無擔保金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.無擔保債權設定金額(法務進度:901)，資產分類一律為五
-2.L7205上傳更新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>L7205上傳更新
-4:四
-5:五</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetClass2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>資產五分類代號2(有擔保部分)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~5 (有擔保部分)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入時為空值，L7205上傳更新
+Y:初貸日大於等於20110101
+C:初貸日小於20110101
+N:無</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入時為空值，L7205上傳更新
+Y/N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref  
+2023/9/8新增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+對應MonthlyLM042RBC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+ref L9731</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+ref LM052</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1024,6 +1202,38 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1106,7 +1316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,8 +1326,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,18 +1424,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1235,29 +1472,57 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{B9D5CC74-7CF2-4DA1-9495-BCF3657B20A2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1559,31 +1824,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="29.21875" style="3"/>
+    <col min="7" max="7" width="50.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="29.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>70</v>
@@ -1593,9 +1858,9 @@
       <c r="G1" s="20"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1607,11 +1872,11 @@
       <c r="G2" s="19"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="11" t="s">
         <v>69</v>
       </c>
@@ -1623,11 +1888,11 @@
       <c r="G3" s="19"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="19"/>
@@ -1635,11 +1900,11 @@
       <c r="G4" s="19"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="19"/>
@@ -1647,11 +1912,11 @@
       <c r="G5" s="19"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="19"/>
@@ -1659,11 +1924,11 @@
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="19"/>
@@ -1671,7 +1936,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1960,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -1715,7 +1980,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -1735,7 +2000,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -1755,12 +2020,12 @@
       <c r="G11" s="16"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>27</v>
@@ -1775,12 +2040,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>50</v>
@@ -1795,15 +2060,15 @@
       <c r="G13" s="16"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>34</v>
@@ -1813,11 +2078,11 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>7</v>
       </c>
@@ -1837,12 +2102,12 @@
       <c r="G15" s="16"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>29</v>
@@ -1857,7 +2122,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>9</v>
       </c>
@@ -1877,15 +2142,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
@@ -1899,7 +2164,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>11</v>
       </c>
@@ -1921,7 +2186,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -1929,7 +2194,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>31</v>
@@ -1941,7 +2206,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>13</v>
       </c>
@@ -1949,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>31</v>
@@ -1961,7 +2226,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="155" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>14</v>
       </c>
@@ -1979,16 +2244,16 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="93" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>62</v>
@@ -2001,16 +2266,16 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>64</v>
@@ -2023,11 +2288,11 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>17</v>
       </c>
@@ -2047,7 +2312,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>18</v>
       </c>
@@ -2067,7 +2332,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>19</v>
       </c>
@@ -2089,7 +2354,7 @@
       </c>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>20</v>
       </c>
@@ -2107,19 +2372,19 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>44</v>
@@ -2131,37 +2396,37 @@
       <c r="G29" s="26"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>22</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="E30" s="12">
         <v>3</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="62" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>31</v>
@@ -2173,66 +2438,66 @@
         <v>79</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="217" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>24</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E32" s="17">
         <v>2</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>25</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="16">
         <v>16</v>
@@ -2243,18 +2508,18 @@
       <c r="G34" s="14"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="16">
         <v>16</v>
@@ -2265,18 +2530,18 @@
       <c r="G35" s="14"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="16">
         <v>16</v>
@@ -2287,18 +2552,18 @@
       <c r="G36" s="14"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="16">
         <v>16</v>
@@ -2309,18 +2574,18 @@
       <c r="G37" s="14"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="16">
         <v>16</v>
@@ -2331,18 +2596,18 @@
       <c r="G38" s="14"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>31</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="16">
         <v>16</v>
@@ -2353,18 +2618,18 @@
       <c r="G39" s="14"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="16">
         <v>16</v>
@@ -2375,18 +2640,18 @@
       <c r="G40" s="14"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="9" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>33</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="E41" s="16">
         <v>16</v>
@@ -2397,18 +2662,18 @@
       <c r="G41" s="14"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>34</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="D42" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="16">
         <v>16</v>
@@ -2417,19 +2682,19 @@
         <v>2</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>35</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>67</v>
@@ -2441,19 +2706,19 @@
         <v>2</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>36</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>67</v>
@@ -2465,19 +2730,19 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>37</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>67</v>
@@ -2489,19 +2754,19 @@
         <v>2</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>38</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>67</v>
@@ -2513,19 +2778,19 @@
         <v>2</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>39</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>67</v>
@@ -2537,19 +2802,19 @@
         <v>2</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>40</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>67</v>
@@ -2563,7 +2828,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="108.5" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>41</v>
       </c>
@@ -2583,19 +2848,19 @@
         <v>79</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>42</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>67</v>
@@ -2607,19 +2872,19 @@
         <v>79</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>43</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>78</v>
@@ -2631,15 +2896,15 @@
       <c r="G51" s="17"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>44</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>31</v>
@@ -2651,22 +2916,22 @@
         <v>79</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" s="21"/>
     </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="9" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
         <v>45</v>
       </c>
       <c r="B53" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="D53" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="E53" s="16">
         <v>8</v>
@@ -2675,18 +2940,18 @@
       <c r="G53" s="14"/>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
         <v>46</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="16">
         <v>16</v>
@@ -2697,18 +2962,18 @@
       <c r="G54" s="26"/>
       <c r="H54" s="21"/>
     </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
         <v>47</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="16">
         <v>16</v>
@@ -2719,18 +2984,18 @@
       <c r="G55" s="14"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
         <v>48</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E56" s="16">
         <v>16</v>
@@ -2741,18 +3006,18 @@
       <c r="G56" s="14"/>
       <c r="H56" s="21"/>
     </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
         <v>49</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E57" s="16">
         <v>16</v>
@@ -2763,18 +3028,18 @@
       <c r="G57" s="14"/>
       <c r="H57" s="21"/>
     </row>
-    <row r="58" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
         <v>50</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="16">
         <v>16</v>
@@ -2783,46 +3048,46 @@
         <v>2</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H58" s="21"/>
     </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
         <v>51</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="44">
+        <v>93</v>
+      </c>
+      <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="34">
+        <v>212</v>
+      </c>
+      <c r="H59" s="32">
         <v>45163</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="9" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
         <v>52</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E60" s="16">
         <v>6</v>
@@ -2833,7 +3098,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
         <v>53</v>
       </c>
@@ -2853,7 +3118,7 @@
       <c r="G61" s="16"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
         <v>54</v>
       </c>
@@ -2873,7 +3138,7 @@
       <c r="G62" s="16"/>
       <c r="H62" s="21"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
         <v>55</v>
       </c>
@@ -2893,7 +3158,7 @@
       <c r="G63" s="16"/>
       <c r="H63" s="21"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
         <v>56</v>
       </c>
@@ -2913,15 +3178,15 @@
       <c r="G64" s="16"/>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="31" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
         <v>57</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>63</v>
@@ -2931,55 +3196,151 @@
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="12">
         <v>58</v>
       </c>
-      <c r="B66" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="42" t="s">
+      <c r="B66" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="17">
         <v>2</v>
       </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="41" t="s">
+      <c r="F66" s="16"/>
+      <c r="G66" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="32">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" ht="155" x14ac:dyDescent="0.4">
+      <c r="A67" s="48">
+        <v>59</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="H66" s="34">
-        <v>45162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="31">
-        <v>59</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="33" t="s">
+      <c r="D67" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="49">
+        <v>2</v>
+      </c>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A68" s="52">
+        <v>60</v>
+      </c>
+      <c r="B68" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="C68" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="33">
-        <v>2</v>
-      </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" s="34">
-        <v>45163</v>
+      <c r="E68" s="55">
+        <v>1</v>
+      </c>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="58" customFormat="1" ht="68" x14ac:dyDescent="0.4">
+      <c r="A69" s="52">
+        <v>61</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="55">
+        <v>1</v>
+      </c>
+      <c r="F69" s="59"/>
+      <c r="G69" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A70" s="52">
+        <v>62</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="55">
+        <v>1</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H70" s="61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A71" s="52">
+        <v>63</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="55">
+        <v>1</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" s="61" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3007,15 +3368,15 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3052,14 +3413,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="49.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -3070,7 +3431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3078,7 +3439,7 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3093,111 +3454,213 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="D5" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="29" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="29" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="29" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:4" s="29" customFormat="1" ht="68" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE432D2A-DED6-46B3-987A-80BF5FA32505}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="6" max="6" width="29.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="136" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="36" customFormat="1" ht="31" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" s="36" customFormat="1" ht="93" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82E73B-448C-4BFB-9753-AD0D82E97282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1041D8-6B0A-43DE-BC15-FAEA0CB21A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <sheet name="資產五分類" sheetId="4" r:id="rId4"/>
     <sheet name="RBC對應表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="255">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -358,10 +354,6 @@
   </si>
   <si>
     <t>地區別與鄉鎮區對照檔CdArea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -392,9 +384,6 @@
   <si>
     <t>AcctCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件隸屬單位</t>
   </si>
   <si>
     <t>共用代碼檔
@@ -1039,10 +1028,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BuildingFlag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>特定資產記號</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1065,34 +1050,75 @@
   </si>
   <si>
     <t>寫入時為空值，L7205上傳更新
+Y/N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref  
+2023/9/8新增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+對應MonthlyLM042RBC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+ref L9731</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+ref LM052</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入時為空值，由L7206[利關人名單檔上傳]上傳更新
+Y/N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳檔案(L7交易)並更新MonthlyFacBal相關欄位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入時為空值，L7205上傳更新
+政策性專案中:
 Y:初貸日大於等於20110101
 C:初貸日小於20110101
 N:無</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>寫入時為空值，L7205上傳更新
-Y/N</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref  
-2023/9/8新增</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/9/8新增
-對應MonthlyLM042RBC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/9/8新增
-ref L9731</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/9/8新增
-ref LM052</t>
+    <t>案件隸屬單位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int YYYYMM,  String txcd,  String empNo,  String jobTxSeq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>findYearMonthAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Usp_L7_UploadToMonthlyFacBal_Upd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,6 +1486,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1474,55 +1530,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{B9D5CC74-7CF2-4DA1-9495-BCF3657B20A2}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1826,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1843,15 +1857,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
@@ -1859,8 +1873,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1873,12 +1887,12 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1889,10 +1903,10 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="19"/>
@@ -1901,10 +1915,10 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="19"/>
@@ -1913,10 +1927,10 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="19"/>
@@ -1925,10 +1939,10 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="19"/>
@@ -1965,13 +1979,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E9" s="15">
         <v>6</v>
@@ -2025,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>27</v>
@@ -2045,10 +2059,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>34</v>
@@ -2065,10 +2079,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>34</v>
@@ -2078,7 +2092,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H14" s="21"/>
     </row>
@@ -2107,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>29</v>
@@ -2147,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
@@ -2169,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>32</v>
@@ -2194,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>31</v>
@@ -2214,7 +2228,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>31</v>
@@ -2231,10 +2245,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>32</v>
@@ -2244,7 +2258,7 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -2253,20 +2267,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E23" s="15">
         <v>3</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H23" s="21"/>
     </row>
@@ -2275,20 +2289,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="15">
         <v>3</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H24" s="21"/>
     </row>
@@ -2337,10 +2351,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>32</v>
@@ -2350,7 +2364,7 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="21"/>
     </row>
@@ -2359,20 +2373,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="24">
         <v>1</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H28" s="21"/>
     </row>
@@ -2381,13 +2395,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="24">
         <v>5</v>
@@ -2401,20 +2415,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" s="12">
         <v>3</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H30" s="21"/>
     </row>
@@ -2423,10 +2437,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>31</v>
@@ -2435,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -2447,20 +2461,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="E32" s="17">
         <v>2</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -2469,20 +2483,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -2491,13 +2505,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="16">
         <v>16</v>
@@ -2513,13 +2527,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="16">
         <v>16</v>
@@ -2535,13 +2549,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="16">
         <v>16</v>
@@ -2557,13 +2571,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="16">
         <v>16</v>
@@ -2579,13 +2593,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="16">
         <v>16</v>
@@ -2601,13 +2615,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E39" s="16">
         <v>16</v>
@@ -2623,13 +2637,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40" s="16">
         <v>16</v>
@@ -2645,13 +2659,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="E41" s="16">
         <v>16</v>
@@ -2667,13 +2681,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" s="16">
         <v>16</v>
@@ -2682,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -2691,13 +2705,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="16">
         <v>16</v>
@@ -2706,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -2715,13 +2729,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="16">
         <v>16</v>
@@ -2730,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -2739,13 +2753,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="16">
         <v>16</v>
@@ -2754,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -2763,13 +2777,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="16">
         <v>16</v>
@@ -2778,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -2787,13 +2801,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="16">
         <v>16</v>
@@ -2802,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -2811,13 +2825,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="16">
         <v>16</v>
@@ -2833,22 +2847,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="E49" s="17">
         <v>1</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -2857,22 +2871,22 @@
         <v>42</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="D50" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="17">
         <v>2</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -2881,13 +2895,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="D51" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="17">
         <v>7</v>
@@ -2901,10 +2915,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>31</v>
@@ -2913,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -2925,13 +2939,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E53" s="16">
         <v>8</v>
@@ -2945,13 +2959,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E54" s="16">
         <v>16</v>
@@ -2967,13 +2981,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E55" s="16">
         <v>16</v>
@@ -2989,13 +3003,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E56" s="16">
         <v>16</v>
@@ -3011,13 +3025,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E57" s="16">
         <v>16</v>
@@ -3033,13 +3047,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E58" s="16">
         <v>16</v>
@@ -3048,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -3057,20 +3071,20 @@
         <v>51</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="33">
         <v>1</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H59" s="32">
         <v>45163</v>
@@ -3081,13 +3095,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E60" s="16">
         <v>6</v>
@@ -3109,11 +3123,9 @@
         <v>40</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="17">
-        <v>8</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E61" s="17"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="21"/>
@@ -3123,13 +3135,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="E62" s="17">
         <v>6</v>
@@ -3143,17 +3155,15 @@
         <v>55</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="D63" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="17">
-        <v>8</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E63" s="17"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="21"/>
@@ -3163,13 +3173,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" s="17">
         <v>6</v>
@@ -3183,20 +3193,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E65" s="17">
         <v>3</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="46.5" x14ac:dyDescent="0.4">
@@ -3204,143 +3214,143 @@
         <v>58</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66" s="17">
         <v>2</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H66" s="32">
         <v>45162</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="9" customFormat="1" ht="155" x14ac:dyDescent="0.4">
-      <c r="A67" s="48">
+      <c r="A67" s="12">
         <v>59</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="17">
+        <v>2</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="49" customFormat="1" ht="51" x14ac:dyDescent="0.4">
+      <c r="A68" s="43">
+        <v>60</v>
+      </c>
+      <c r="B68" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C68" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D68" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="46">
+        <v>1</v>
+      </c>
+      <c r="F68" s="46"/>
+      <c r="G68" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="49" customFormat="1" ht="85" x14ac:dyDescent="0.4">
+      <c r="A69" s="43">
+        <v>61</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="46">
+        <v>1</v>
+      </c>
+      <c r="F69" s="50"/>
+      <c r="G69" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="49" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A70" s="43">
+        <v>62</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="46">
+        <v>1</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="49" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A71" s="43">
         <v>63</v>
       </c>
-      <c r="E67" s="49">
-        <v>2</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="H67" s="32" t="s">
+      <c r="B71" s="44" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
-      <c r="A68" s="52">
-        <v>60</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="55">
+      <c r="C71" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="46">
         <v>1</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="H68" s="57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="58" customFormat="1" ht="68" x14ac:dyDescent="0.4">
-      <c r="A69" s="52">
-        <v>61</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="55">
-        <v>1</v>
-      </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="56" t="s">
+      <c r="F71" s="43"/>
+      <c r="G71" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="H71" s="52" t="s">
         <v>243</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
-      <c r="A70" s="52">
-        <v>62</v>
-      </c>
-      <c r="B70" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="55">
-        <v>1</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="58" customFormat="1" ht="34" x14ac:dyDescent="0.4">
-      <c r="A71" s="52">
-        <v>63</v>
-      </c>
-      <c r="B71" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="55">
-        <v>1</v>
-      </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="H71" s="61" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3361,11 +3371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3389,13 +3399,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3407,39 +3425,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3467,94 +3496,94 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.4">
       <c r="A6" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="29" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:4" s="29" customFormat="1" ht="68" x14ac:dyDescent="0.4">
       <c r="A10" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3564,11 +3593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE432D2A-DED6-46B3-987A-80BF5FA32505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3576,82 +3605,82 @@
     <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="42.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
     <col min="5" max="5" width="24.36328125" customWidth="1"/>
     <col min="6" max="6" width="29.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="136" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>233</v>
-      </c>
       <c r="G1" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="36" customFormat="1" ht="31" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" s="36" customFormat="1" ht="93" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="34" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1041D8-6B0A-43DE-BC15-FAEA0CB21A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C43E061-1EE7-4867-BA1D-0694E1A500CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="資產五分類" sheetId="4" r:id="rId4"/>
     <sheet name="RBC對應表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1069,11 +1069,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023/9/8新增
-ref LM052</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>寫入時為空值，由L7206[利關人名單檔上傳]上傳更新
 Y/N</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1119,6 +1114,11 @@
   </si>
   <si>
     <t>Usp_L7_UploadToMonthlyFacBal_Upd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增
+ref LM052 放款資產分類-會計部備呆計提</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1852,7 +1852,7 @@
     <col min="4" max="4" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.54296875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="29.1796875" style="3"/>
   </cols>
   <sheetData>
@@ -2437,7 +2437,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>87</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>171</v>
@@ -3123,7 +3123,7 @@
         <v>40</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="16"/>
@@ -3161,7 +3161,7 @@
         <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="16"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F68" s="46"/>
       <c r="G68" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H68" s="48" t="s">
         <v>240</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F69" s="50"/>
       <c r="G69" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H69" s="51" t="s">
         <v>241</v>
@@ -3310,7 +3310,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="44" t="s">
         <v>235</v>
@@ -3350,7 +3350,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
